--- a/biology/Zoologie/Gekko/Gekko.xlsx
+++ b/biology/Zoologie/Gekko/Gekko.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gekko est un genre de geckos de la famille des Gekkonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gekko est un genre de geckos de la famille des Gekkonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les 59 espèces de ce genre se rencontrent dans le sud-est de l'Asie et en Océanie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 59 espèces de ce genre se rencontrent dans le sud-est de l'Asie et en Océanie.
 La plupart des espèces de ce genre vivent dans les forêts tropicales humides. 
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des geckos dits "typiques". Ce genre contient le connu Gekko gecko, aussi appelé gecko tokay.
 Ils sont pour la plupart insectivores, avec parfois d'autres sources de nourriture comme des fruits, de petits mammifères ou de petits reptiles pour les plus grandes espèces. Ces animaux sont principalement arboricoles, et pourvus de setæ leur permettant d'escalader la plupart des surfaces.
@@ -575,9 +591,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (9 novembre 2017)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (9 novembre 2017) :
 Gekko aaronbaueri Tri, Thai, Phimvohan, David &amp; Teynié, 2015
 Gekko adleri Nguyen, Wang, Yang, Lehmann, Le, Ziegler &amp; Bonkowski, 2013
 Gekko albofasciolatus (Günther, 1867)
@@ -665,7 +683,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Laurenti, 1768 : Specimen medicum, exhibens synopsin reptilium emendatam cum experimentis circa venena et antidota reptilium austriacorum Vienna Joan Thomae p. 1-217 (texte intégral).</t>
         </is>
